--- a/Excell_files/data1.xlsx
+++ b/Excell_files/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik\PycharmProjects\Project_VIA\Excell_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D71DED-E68C-408F-8E0C-342A24B32565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECAC96B-644D-4643-A132-D3FC1BCFA20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5496" yWindow="3084" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positive" sheetId="1" r:id="rId1"/>
@@ -27,37 +27,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Aulleem</t>
+  </si>
+  <si>
+    <t>shaik.abdulaleem.95@gmail.com</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>from_loc</t>
+  </si>
+  <si>
+    <t>to_loc</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Aulleem</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>shaik.abdulaleem.95@gmail.com</t>
-  </si>
-  <si>
     <t>mobile</t>
-  </si>
-  <si>
-    <t>from_loc</t>
-  </si>
-  <si>
-    <t>to_loc</t>
   </si>
 </sst>
 </file>
@@ -392,57 +392,57 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>9030537469</v>

--- a/Excell_files/data1.xlsx
+++ b/Excell_files/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik\PycharmProjects\Project_VIA\Excell_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECAC96B-644D-4643-A132-D3FC1BCFA20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6087427C-8CD2-4092-AE6B-3C4FB0FD56B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5496" yWindow="3084" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excell_files/data1.xlsx
+++ b/Excell_files/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik\PycharmProjects\Project_VIA\Excell_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6087427C-8CD2-4092-AE6B-3C4FB0FD56B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A0AFAE-2A1E-463C-A818-F17A971C73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5496" yWindow="3084" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positive" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>b</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>C</t>
   </si>
@@ -40,9 +37,6 @@
   </si>
   <si>
     <t>shaik.abdulaleem.95@gmail.com</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>from_loc</t>
@@ -389,68 +383,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9030537469</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9030537469</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{01AB28DD-0E2F-4BE0-A7B9-57CB08B70D9C}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{BFE6224A-0D10-4923-9FE1-28A05AC0869B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excell_files/data1.xlsx
+++ b/Excell_files/data1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik\PycharmProjects\Project_VIA\Excell_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A0AFAE-2A1E-463C-A818-F17A971C73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A35405-77DA-4D0D-8EDC-DDE7792C70C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="positive" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>C</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>mobile</t>
+  </si>
+  <si>
+    <t>Testcase1</t>
+  </si>
+  <si>
+    <t>Name_</t>
   </si>
 </sst>
 </file>
@@ -383,62 +389,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9030537469</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9030537469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{BFE6224A-0D10-4923-9FE1-28A05AC0869B}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{BFE6224A-0D10-4923-9FE1-28A05AC0869B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
